--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>1.950139002427</v>
+        <v>1.995968808223</v>
       </c>
       <c r="R2">
-        <v>17.551251021843</v>
+        <v>17.963719274007</v>
       </c>
       <c r="S2">
-        <v>0.003312132134620329</v>
+        <v>0.003603655870791735</v>
       </c>
       <c r="T2">
-        <v>0.003312132134620329</v>
+        <v>0.003603655870791735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>56.79094760667999</v>
+        <v>97.64296471217332</v>
       </c>
       <c r="R3">
-        <v>511.1185284601199</v>
+        <v>878.7866824095599</v>
       </c>
       <c r="S3">
-        <v>0.0964542128994548</v>
+        <v>0.17629115323691</v>
       </c>
       <c r="T3">
-        <v>0.0964542128994548</v>
+        <v>0.17629115323691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H4">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I4">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J4">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>13.50418154287533</v>
+        <v>34.58039848861744</v>
       </c>
       <c r="R4">
-        <v>121.537633885878</v>
+        <v>311.223586397557</v>
       </c>
       <c r="S4">
-        <v>0.02293561309436886</v>
+        <v>0.06243376926254107</v>
       </c>
       <c r="T4">
-        <v>0.02293561309436885</v>
+        <v>0.06243376926254107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H5">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I5">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J5">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.117377341515</v>
+        <v>0.1606142652195555</v>
       </c>
       <c r="R5">
-        <v>1.056396073635</v>
+        <v>1.445528386976</v>
       </c>
       <c r="S5">
-        <v>0.0001993546430404718</v>
+        <v>0.0002899837599700033</v>
       </c>
       <c r="T5">
-        <v>0.0001993546430404717</v>
+        <v>0.0002899837599700034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>0.5205675776290001</v>
+        <v>0.309887069817</v>
       </c>
       <c r="R6">
-        <v>4.685108198661</v>
+        <v>2.788983628353</v>
       </c>
       <c r="S6">
-        <v>0.000884136258984962</v>
+        <v>0.000559490886745217</v>
       </c>
       <c r="T6">
-        <v>0.000884136258984962</v>
+        <v>0.0005594908867452171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>15.15970194436</v>
@@ -883,10 +883,10 @@
         <v>136.43731749924</v>
       </c>
       <c r="S7">
-        <v>0.02574736257194599</v>
+        <v>0.02737034200443387</v>
       </c>
       <c r="T7">
-        <v>0.02574736257194599</v>
+        <v>0.02737034200443387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>3.604788717567334</v>
+        <v>5.368830573200333</v>
       </c>
       <c r="R8">
-        <v>32.443098458106</v>
+        <v>48.319475158803</v>
       </c>
       <c r="S8">
-        <v>0.006122402831343047</v>
+        <v>0.009693246575142842</v>
       </c>
       <c r="T8">
-        <v>0.006122402831343046</v>
+        <v>0.009693246575142842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>0.031332555405</v>
+        <v>0.02493640372266667</v>
       </c>
       <c r="R9">
-        <v>0.281992998645</v>
+        <v>0.224427633504</v>
       </c>
       <c r="S9">
-        <v>5.321547001906963E-05</v>
+        <v>4.502185470103836E-05</v>
       </c>
       <c r="T9">
-        <v>5.321547001906962E-05</v>
+        <v>4.502185470103837E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H10">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>2.980861644431</v>
+        <v>0.9133273862570002</v>
       </c>
       <c r="R10">
-        <v>26.827754799879</v>
+        <v>8.219946476313</v>
       </c>
       <c r="S10">
-        <v>0.005062719954367299</v>
+        <v>0.001648982481028925</v>
       </c>
       <c r="T10">
-        <v>0.005062719954367299</v>
+        <v>0.001648982481028925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H11">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>86.80712362604</v>
+        <v>44.68005380622667</v>
       </c>
       <c r="R11">
-        <v>781.26411263436</v>
+        <v>402.12048425604</v>
       </c>
       <c r="S11">
-        <v>0.1474339333339544</v>
+        <v>0.08066836392571035</v>
       </c>
       <c r="T11">
-        <v>0.1474339333339544</v>
+        <v>0.08066836392571033</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H12">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>20.64165515919267</v>
+        <v>15.82350627786256</v>
       </c>
       <c r="R12">
-        <v>185.774896432734</v>
+        <v>142.411556500763</v>
       </c>
       <c r="S12">
-        <v>0.03505795703764084</v>
+        <v>0.02856881884116018</v>
       </c>
       <c r="T12">
-        <v>0.03505795703764084</v>
+        <v>0.02856881884116018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H13">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.179415731295</v>
+        <v>0.07349483942044445</v>
       </c>
       <c r="R13">
-        <v>1.614741581655</v>
+        <v>0.661453554784</v>
       </c>
       <c r="S13">
-        <v>0.000304721154922299</v>
+        <v>0.0001326925092512719</v>
       </c>
       <c r="T13">
-        <v>0.000304721154922299</v>
+        <v>0.0001326925092512718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H14">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I14">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J14">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>10.41595148258867</v>
+        <v>5.007593741956001</v>
       </c>
       <c r="R14">
-        <v>93.74356334329801</v>
+        <v>45.06834367760401</v>
       </c>
       <c r="S14">
-        <v>0.01769053773869106</v>
+        <v>0.00904104538728019</v>
       </c>
       <c r="T14">
-        <v>0.01769053773869106</v>
+        <v>0.009041045387280192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H15">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I15">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J15">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>303.3279956891466</v>
+        <v>244.9719139018133</v>
       </c>
       <c r="R15">
-        <v>2729.95196120232</v>
+        <v>2204.74722511632</v>
       </c>
       <c r="S15">
-        <v>0.515174764774034</v>
+        <v>0.4422887131674688</v>
       </c>
       <c r="T15">
-        <v>0.5151747647740341</v>
+        <v>0.4422887131674689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H16">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I16">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J16">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>72.12762761403422</v>
+        <v>86.75716090980045</v>
       </c>
       <c r="R16">
-        <v>649.1486485263081</v>
+        <v>780.814448188204</v>
       </c>
       <c r="S16">
-        <v>0.122502156470415</v>
+        <v>0.156637193405928</v>
       </c>
       <c r="T16">
-        <v>0.122502156470415</v>
+        <v>0.156637193405928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H17">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I17">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J17">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>0.6269279742899999</v>
+        <v>0.4029576945635556</v>
       </c>
       <c r="R17">
-        <v>5.642351768609999</v>
+        <v>3.626619251072</v>
       </c>
       <c r="S17">
-        <v>0.001064779632197559</v>
+        <v>0.000727526830936539</v>
       </c>
       <c r="T17">
-        <v>0.001064779632197559</v>
+        <v>0.0007275268309365392</v>
       </c>
     </row>
   </sheetData>
